--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ifnk</t>
   </si>
   <si>
     <t>Ifnar2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.837175657991715</v>
+        <v>0.057567</v>
       </c>
       <c r="H2">
-        <v>0.837175657991715</v>
+        <v>0.172701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03117982548787027</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03250051328683672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.2194374271207</v>
+        <v>26.65724566666666</v>
       </c>
       <c r="N2">
-        <v>24.2194374271207</v>
+        <v>79.97173699999999</v>
       </c>
       <c r="O2">
-        <v>0.1263097204075002</v>
+        <v>0.1289633445676506</v>
       </c>
       <c r="P2">
-        <v>0.1263097204075002</v>
+        <v>0.1319729422695889</v>
       </c>
       <c r="Q2">
-        <v>20.27592346423894</v>
+        <v>1.534577661293</v>
       </c>
       <c r="R2">
-        <v>20.27592346423894</v>
+        <v>13.811198951637</v>
       </c>
       <c r="S2">
-        <v>0.1263097204075002</v>
+        <v>0.004021054577951429</v>
       </c>
       <c r="T2">
-        <v>0.1263097204075002</v>
+        <v>0.004289188363735708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.837175657991715</v>
+        <v>0.057567</v>
       </c>
       <c r="H3">
-        <v>0.837175657991715</v>
+        <v>0.172701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03117982548787027</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03250051328683672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.3846377090215</v>
+        <v>30.84182166666666</v>
       </c>
       <c r="N3">
-        <v>29.3846377090215</v>
+        <v>92.525465</v>
       </c>
       <c r="O3">
-        <v>0.1532473817556974</v>
+        <v>0.1492076309918978</v>
       </c>
       <c r="P3">
-        <v>0.1532473817556974</v>
+        <v>0.1526896664869473</v>
       </c>
       <c r="Q3">
-        <v>24.60010340889824</v>
+        <v>1.775471147885</v>
       </c>
       <c r="R3">
-        <v>24.60010340889824</v>
+        <v>15.979240330965</v>
       </c>
       <c r="S3">
-        <v>0.1532473817556974</v>
+        <v>0.004652267895785917</v>
       </c>
       <c r="T3">
-        <v>0.1532473817556974</v>
+        <v>0.004962492534421699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.837175657991715</v>
+        <v>0.057567</v>
       </c>
       <c r="H4">
-        <v>0.837175657991715</v>
+        <v>0.172701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03117982548787027</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03250051328683672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.9881388487681</v>
+        <v>68.43473999999999</v>
       </c>
       <c r="N4">
-        <v>57.9881388487681</v>
+        <v>205.30422</v>
       </c>
       <c r="O4">
-        <v>0.3024209636156672</v>
+        <v>0.3310759508081305</v>
       </c>
       <c r="P4">
-        <v>0.3024209636156672</v>
+        <v>0.3388022192610743</v>
       </c>
       <c r="Q4">
-        <v>48.54625829643237</v>
+        <v>3.939582677579999</v>
       </c>
       <c r="R4">
-        <v>48.54625829643237</v>
+        <v>35.45624409822</v>
       </c>
       <c r="S4">
-        <v>0.3024209636156672</v>
+        <v>0.01032289036942823</v>
       </c>
       <c r="T4">
-        <v>0.3024209636156672</v>
+        <v>0.01101124602870431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.837175657991715</v>
+        <v>0.057567</v>
       </c>
       <c r="H5">
-        <v>0.837175657991715</v>
+        <v>0.172701</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.03117982548787027</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.03250051328683672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>66.06861262131071</v>
+        <v>66.628798</v>
       </c>
       <c r="N5">
-        <v>66.06861262131071</v>
+        <v>199.886394</v>
       </c>
       <c r="O5">
-        <v>0.3445624207011686</v>
+        <v>0.3223391021731487</v>
       </c>
       <c r="P5">
-        <v>0.3445624207011686</v>
+        <v>0.3298614801356421</v>
       </c>
       <c r="Q5">
-        <v>55.31103424384552</v>
+        <v>3.835620014466</v>
       </c>
       <c r="R5">
-        <v>55.31103424384552</v>
+        <v>34.520580130194</v>
       </c>
       <c r="S5">
-        <v>0.3445624207011686</v>
+        <v>0.01005047695367556</v>
       </c>
       <c r="T5">
-        <v>0.3445624207011686</v>
+        <v>0.01072066741796406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.057567</v>
+      </c>
+      <c r="H6">
+        <v>0.172701</v>
+      </c>
+      <c r="I6">
+        <v>0.03117982548787027</v>
+      </c>
+      <c r="J6">
+        <v>0.03250051328683672</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>14.141445</v>
+      </c>
+      <c r="N6">
+        <v>28.28289</v>
+      </c>
+      <c r="O6">
+        <v>0.0684139714591724</v>
+      </c>
+      <c r="P6">
+        <v>0.04667369184674746</v>
+      </c>
+      <c r="Q6">
+        <v>0.8140805643150001</v>
+      </c>
+      <c r="R6">
+        <v>4.88448338589</v>
+      </c>
+      <c r="S6">
+        <v>0.002133135691029133</v>
+      </c>
+      <c r="T6">
+        <v>0.001516918942010938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H7">
+        <v>2.832728</v>
+      </c>
+      <c r="I7">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J7">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>26.65724566666666</v>
+      </c>
+      <c r="N7">
+        <v>79.97173699999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1289633445676506</v>
+      </c>
+      <c r="P7">
+        <v>0.1319729422695889</v>
+      </c>
+      <c r="Q7">
+        <v>25.17090873428178</v>
+      </c>
+      <c r="R7">
+        <v>226.538178608536</v>
+      </c>
+      <c r="S7">
+        <v>0.06595534416414031</v>
+      </c>
+      <c r="T7">
+        <v>0.07035340834869704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H8">
+        <v>2.832728</v>
+      </c>
+      <c r="I8">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J8">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>30.84182166666666</v>
+      </c>
+      <c r="N8">
+        <v>92.525465</v>
+      </c>
+      <c r="O8">
+        <v>0.1492076309918978</v>
+      </c>
+      <c r="P8">
+        <v>0.1526896664869473</v>
+      </c>
+      <c r="Q8">
+        <v>29.12216393539111</v>
+      </c>
+      <c r="R8">
+        <v>262.09947541852</v>
+      </c>
+      <c r="S8">
+        <v>0.0763088200525408</v>
+      </c>
+      <c r="T8">
+        <v>0.08139727941382685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H9">
+        <v>2.832728</v>
+      </c>
+      <c r="I9">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J9">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>68.43473999999999</v>
+      </c>
+      <c r="N9">
+        <v>205.30422</v>
+      </c>
+      <c r="O9">
+        <v>0.3310759508081305</v>
+      </c>
+      <c r="P9">
+        <v>0.3388022192610743</v>
+      </c>
+      <c r="Q9">
+        <v>64.61900139024</v>
+      </c>
+      <c r="R9">
+        <v>581.57101251216</v>
+      </c>
+      <c r="S9">
+        <v>0.1693212001691345</v>
+      </c>
+      <c r="T9">
+        <v>0.1806119532625724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H10">
+        <v>2.832728</v>
+      </c>
+      <c r="I10">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J10">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>66.628798</v>
+      </c>
+      <c r="N10">
+        <v>199.886394</v>
+      </c>
+      <c r="O10">
+        <v>0.3223391021731487</v>
+      </c>
+      <c r="P10">
+        <v>0.3298614801356421</v>
+      </c>
+      <c r="Q10">
+        <v>62.91375390031467</v>
+      </c>
+      <c r="R10">
+        <v>566.223785102832</v>
+      </c>
+      <c r="S10">
+        <v>0.1648529393578003</v>
+      </c>
+      <c r="T10">
+        <v>0.1758457378564948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9442426666666668</v>
+      </c>
+      <c r="H11">
+        <v>2.832728</v>
+      </c>
+      <c r="I11">
+        <v>0.5114270600321005</v>
+      </c>
+      <c r="J11">
+        <v>0.533089640488442</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.141445</v>
+      </c>
+      <c r="N11">
+        <v>28.28289</v>
+      </c>
+      <c r="O11">
+        <v>0.0684139714591724</v>
+      </c>
+      <c r="P11">
+        <v>0.04667369184674746</v>
+      </c>
+      <c r="Q11">
+        <v>13.35295573732</v>
+      </c>
+      <c r="R11">
+        <v>80.11773442392001</v>
+      </c>
+      <c r="S11">
+        <v>0.03498875628848457</v>
+      </c>
+      <c r="T11">
+        <v>0.02488126160685093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.85821</v>
+      </c>
+      <c r="I12">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J12">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>26.65724566666666</v>
+      </c>
+      <c r="N12">
+        <v>79.97173699999999</v>
+      </c>
+      <c r="O12">
+        <v>0.1289633445676506</v>
+      </c>
+      <c r="P12">
+        <v>0.1319729422695889</v>
+      </c>
+      <c r="Q12">
+        <v>16.51158682341889</v>
+      </c>
+      <c r="R12">
+        <v>148.60428141077</v>
+      </c>
+      <c r="S12">
+        <v>0.04326531883020437</v>
+      </c>
+      <c r="T12">
+        <v>0.04615035645061309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.837175657991715</v>
-      </c>
-      <c r="H6">
-        <v>0.837175657991715</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>14.0855991556602</v>
-      </c>
-      <c r="N6">
-        <v>14.0855991556602</v>
-      </c>
-      <c r="O6">
-        <v>0.07345951351996668</v>
-      </c>
-      <c r="P6">
-        <v>0.07345951351996668</v>
-      </c>
-      <c r="Q6">
-        <v>11.79212074134737</v>
-      </c>
-      <c r="R6">
-        <v>11.79212074134737</v>
-      </c>
-      <c r="S6">
-        <v>0.07345951351996668</v>
-      </c>
-      <c r="T6">
-        <v>0.07345951351996668</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.85821</v>
+      </c>
+      <c r="I13">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J13">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>30.84182166666666</v>
+      </c>
+      <c r="N13">
+        <v>92.525465</v>
+      </c>
+      <c r="O13">
+        <v>0.1492076309918978</v>
+      </c>
+      <c r="P13">
+        <v>0.1526896664869473</v>
+      </c>
+      <c r="Q13">
+        <v>19.10352714640556</v>
+      </c>
+      <c r="R13">
+        <v>171.93174431765</v>
+      </c>
+      <c r="S13">
+        <v>0.05005698129500321</v>
+      </c>
+      <c r="T13">
+        <v>0.05339490363337644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.85821</v>
+      </c>
+      <c r="I14">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J14">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>68.43473999999999</v>
+      </c>
+      <c r="N14">
+        <v>205.30422</v>
+      </c>
+      <c r="O14">
+        <v>0.3310759508081305</v>
+      </c>
+      <c r="P14">
+        <v>0.3388022192610743</v>
+      </c>
+      <c r="Q14">
+        <v>42.3887060718</v>
+      </c>
+      <c r="R14">
+        <v>381.4983546462</v>
+      </c>
+      <c r="S14">
+        <v>0.1110711467413346</v>
+      </c>
+      <c r="T14">
+        <v>0.1184776433431112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.85821</v>
+      </c>
+      <c r="I15">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J15">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>66.628798</v>
+      </c>
+      <c r="N15">
+        <v>199.886394</v>
+      </c>
+      <c r="O15">
+        <v>0.3223391021731487</v>
+      </c>
+      <c r="P15">
+        <v>0.3298614801356421</v>
+      </c>
+      <c r="Q15">
+        <v>41.27009957719334</v>
+      </c>
+      <c r="R15">
+        <v>371.43089619474</v>
+      </c>
+      <c r="S15">
+        <v>0.1081400616098891</v>
+      </c>
+      <c r="T15">
+        <v>0.11535110626305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.6194033333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.85821</v>
+      </c>
+      <c r="I16">
+        <v>0.3354853968408719</v>
+      </c>
+      <c r="J16">
+        <v>0.3496955940888175</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.141445</v>
+      </c>
+      <c r="N16">
+        <v>28.28289</v>
+      </c>
+      <c r="O16">
+        <v>0.0684139714591724</v>
+      </c>
+      <c r="P16">
+        <v>0.04667369184674746</v>
+      </c>
+      <c r="Q16">
+        <v>8.759258171150002</v>
+      </c>
+      <c r="R16">
+        <v>52.55554902690001</v>
+      </c>
+      <c r="S16">
+        <v>0.02295188836444054</v>
+      </c>
+      <c r="T16">
+        <v>0.01632158439866675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.225077</v>
+      </c>
+      <c r="H17">
+        <v>0.450154</v>
+      </c>
+      <c r="I17">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J17">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.65724566666666</v>
+      </c>
+      <c r="N17">
+        <v>79.97173699999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1289633445676506</v>
+      </c>
+      <c r="P17">
+        <v>0.1319729422695889</v>
+      </c>
+      <c r="Q17">
+        <v>5.999932882916333</v>
+      </c>
+      <c r="R17">
+        <v>35.99959729749799</v>
+      </c>
+      <c r="S17">
+        <v>0.01572162699535452</v>
+      </c>
+      <c r="T17">
+        <v>0.01117998910654301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.225077</v>
+      </c>
+      <c r="H18">
+        <v>0.450154</v>
+      </c>
+      <c r="I18">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J18">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>30.84182166666666</v>
+      </c>
+      <c r="N18">
+        <v>92.525465</v>
+      </c>
+      <c r="O18">
+        <v>0.1492076309918978</v>
+      </c>
+      <c r="P18">
+        <v>0.1526896664869473</v>
+      </c>
+      <c r="Q18">
+        <v>6.941784695268333</v>
+      </c>
+      <c r="R18">
+        <v>41.65070817161</v>
+      </c>
+      <c r="S18">
+        <v>0.01818956174856787</v>
+      </c>
+      <c r="T18">
+        <v>0.01293499090532229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.225077</v>
+      </c>
+      <c r="H19">
+        <v>0.450154</v>
+      </c>
+      <c r="I19">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J19">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>68.43473999999999</v>
+      </c>
+      <c r="N19">
+        <v>205.30422</v>
+      </c>
+      <c r="O19">
+        <v>0.3310759508081305</v>
+      </c>
+      <c r="P19">
+        <v>0.3388022192610743</v>
+      </c>
+      <c r="Q19">
+        <v>15.40308597498</v>
+      </c>
+      <c r="R19">
+        <v>92.41851584988</v>
+      </c>
+      <c r="S19">
+        <v>0.04036071352823315</v>
+      </c>
+      <c r="T19">
+        <v>0.02870137662668637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.225077</v>
+      </c>
+      <c r="H20">
+        <v>0.450154</v>
+      </c>
+      <c r="I20">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J20">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>66.628798</v>
+      </c>
+      <c r="N20">
+        <v>199.886394</v>
+      </c>
+      <c r="O20">
+        <v>0.3223391021731487</v>
+      </c>
+      <c r="P20">
+        <v>0.3298614801356421</v>
+      </c>
+      <c r="Q20">
+        <v>14.996609967446</v>
+      </c>
+      <c r="R20">
+        <v>89.979659804676</v>
+      </c>
+      <c r="S20">
+        <v>0.03929562425178373</v>
+      </c>
+      <c r="T20">
+        <v>0.02794396859813316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.225077</v>
+      </c>
+      <c r="H21">
+        <v>0.450154</v>
+      </c>
+      <c r="I21">
+        <v>0.1219077176391574</v>
+      </c>
+      <c r="J21">
+        <v>0.08471425213590365</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.141445</v>
+      </c>
+      <c r="N21">
+        <v>28.28289</v>
+      </c>
+      <c r="O21">
+        <v>0.0684139714591724</v>
+      </c>
+      <c r="P21">
+        <v>0.04667369184674746</v>
+      </c>
+      <c r="Q21">
+        <v>3.182914016265</v>
+      </c>
+      <c r="R21">
+        <v>12.73165606506</v>
+      </c>
+      <c r="S21">
+        <v>0.008340191115218165</v>
+      </c>
+      <c r="T21">
+        <v>0.003953926899218835</v>
       </c>
     </row>
   </sheetData>
